--- a/FowlerModule05-2.xlsx
+++ b/FowlerModule05-2.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Self Esteem" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="ANOVA" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="CHI Square" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t xml:space="preserve">Self Esteem Data</t>
   </si>
@@ -59,6 +61,39 @@
   </si>
   <si>
     <t xml:space="preserve">Divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0: Marital Status is independent of support level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1: Marital Status is not independent of support level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degrees Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi Square Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi Square </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision</t>
   </si>
 </sst>
 </file>
@@ -68,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +136,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -146,25 +188,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -361,8 +407,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1611,4 +1657,291 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Single", 'Self Esteem'!C4:C63, "Direct")</f>
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Single", 'Self Esteem'!C4:C63, "None")</f>
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUM(B2:C2)</f>
+        <v>23</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Married", 'Self Esteem'!C4:C63, "Direct")</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Married", 'Self Esteem'!C4:C63, "None")</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(B3:C3)</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Separated", 'Self Esteem'!C4:C63, "Direct")</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Separated", 'Self Esteem'!C4:C63, "None")</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUM(B4:C4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Divorced", 'Self Esteem'!C4:C63, "Direct")</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">COUNTIFS('Self Esteem'!A4:A63, "Divorced", 'Self Esteem'!C4:C63, "None")</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUM(B5:C5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">SUM(B2:B5)</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">SUM(C2:C5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">D9/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">D9/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">D2</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">D10/2</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">D10/2</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">D3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">D11/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">D11/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">D4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">D12/2</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">D12/2</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">D5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">SUM(B9:B12)</f>
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">SUM(C9:C12)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">CHIINV(B15,B16)</f>
+        <v>7.81472790325118</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">CHITEST(B2:C5,B9:C12)</f>
+        <v>0.0105388750555306</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <f aca="false">IF(B18&lt;B15, "Reject H0", "Do no reject H0")</f>
+        <v>Reject H0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>